--- a/MS/Integrate/PhO2SOPh/PhO2SOPh-v1-v5.xlsx
+++ b/MS/Integrate/PhO2SOPh/PhO2SOPh-v1-v5.xlsx
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,7 +90,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF28471F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009900"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -150,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,18 +170,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -187,7 +198,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF009900"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -233,7 +244,7 @@
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF28471F"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -251,6 +262,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PhO2SOPh-v1-v5'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -269,18 +291,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -386,11 +396,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60071820"/>
-        <c:axId val="9814025"/>
+        <c:axId val="62088675"/>
+        <c:axId val="51438264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60071820"/>
+        <c:axId val="62088675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,21 +419,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9814025"/>
+        <c:crossAx val="51438264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9814025"/>
+        <c:axId val="51438264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,16 +468,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60071820"/>
+        <c:crossAx val="62088675"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -482,17 +506,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -512,16 +525,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>348480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -529,7 +542,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3587760" y="1405800"/>
+        <a:off x="2000880" y="2495880"/>
         <a:ext cx="5766120" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
@@ -551,31 +564,31 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -589,7 +602,7 @@
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -601,7 +614,7 @@
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -613,7 +626,7 @@
       <c r="L1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -625,7 +638,7 @@
       <c r="P1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="0" t="s">
@@ -637,12 +650,12 @@
       <c r="T1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -654,7 +667,7 @@
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -666,7 +679,7 @@
       <c r="H2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -678,7 +691,7 @@
       <c r="L2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="0" t="s">
@@ -690,7 +703,7 @@
       <c r="P2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -702,18 +715,18 @@
       <c r="T2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -725,7 +738,7 @@
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>17037.4</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -737,7 +750,7 @@
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>11192.1</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -749,7 +762,7 @@
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>11932.5</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -761,7 +774,7 @@
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="2" t="n">
         <v>8681.4</v>
       </c>
       <c r="R3" s="0" t="n">
@@ -773,20 +786,20 @@
       <c r="T3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="2" t="n">
         <v>7812.1</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3" s="1" t="n">
         <f aca="false">A3</f>
         <v>30</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <f aca="false">(E3+I3+M3+Q3+U3)/5</f>
         <v>11331.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -798,7 +811,7 @@
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>51490.3</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -810,7 +823,7 @@
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>42792.2</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -822,7 +835,7 @@
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>44537.3</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -834,7 +847,7 @@
       <c r="P4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="2" t="n">
         <v>39468.2</v>
       </c>
       <c r="R4" s="0" t="n">
@@ -846,20 +859,20 @@
       <c r="T4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="2" t="n">
         <v>20262.4</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">A4</f>
         <v>60</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <f aca="false">(E4+I4+M4+Q4+U4)/5</f>
         <v>39710.08</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -871,7 +884,7 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>71378.3</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -883,7 +896,7 @@
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>74303.5</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -895,7 +908,7 @@
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>61867.5</v>
       </c>
       <c r="N5" s="0" t="n">
@@ -907,7 +920,7 @@
       <c r="P5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="2" t="n">
         <v>72809.7</v>
       </c>
       <c r="R5" s="0" t="n">
@@ -919,20 +932,20 @@
       <c r="T5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="2" t="n">
         <v>62820.2</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <f aca="false">A5</f>
         <v>120</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="4" t="n">
         <f aca="false">(E5+I5+M5+Q5+U5)/5</f>
         <v>68635.84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -944,7 +957,7 @@
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>100411.2</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -956,7 +969,7 @@
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>93979.8</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -968,7 +981,7 @@
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>91472.2</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -980,7 +993,7 @@
       <c r="P6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="2" t="n">
         <v>109292.8</v>
       </c>
       <c r="R6" s="0" t="n">
@@ -992,20 +1005,20 @@
       <c r="T6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="2" t="n">
         <v>92797.7</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <f aca="false">A6</f>
         <v>180</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="4" t="n">
         <f aca="false">(E6+I6+M6+Q6+U6)/5</f>
         <v>97590.74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -1017,7 +1030,7 @@
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>77226.7</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -1029,7 +1042,7 @@
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>67889.4</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -1041,7 +1054,7 @@
       <c r="L7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="2" t="n">
         <v>74297.5</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -1053,7 +1066,7 @@
       <c r="P7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="2" t="n">
         <v>89382.5</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -1065,20 +1078,20 @@
       <c r="T7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="2" t="n">
         <v>61226.5</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">A7</f>
         <v>240</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="4" t="n">
         <f aca="false">(E7+I7+M7+Q7+U7)/5</f>
         <v>74004.52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>360</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -1090,7 +1103,7 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>101082</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -1102,7 +1115,7 @@
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>94472.2</v>
       </c>
       <c r="J8" s="0" t="n">
@@ -1114,7 +1127,7 @@
       <c r="L8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>84897.1</v>
       </c>
       <c r="N8" s="0" t="n">
@@ -1126,7 +1139,7 @@
       <c r="P8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="2" t="n">
         <v>117469.5</v>
       </c>
       <c r="R8" s="0" t="n">
@@ -1138,20 +1151,20 @@
       <c r="T8" s="0" t="n">
         <v>273.6</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="2" t="n">
         <v>74779.1</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <f aca="false">A8</f>
         <v>360</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="4" t="n">
         <f aca="false">(E8+I8+M8+Q8+U8)/5</f>
         <v>94539.98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>420</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -1163,7 +1176,7 @@
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>105657</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1175,7 +1188,7 @@
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>98785.2</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -1187,7 +1200,7 @@
       <c r="L9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="2" t="n">
         <v>90529.1</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -1199,7 +1212,7 @@
       <c r="P9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="2" t="n">
         <v>117898.4</v>
       </c>
       <c r="R9" s="0" t="n">
@@ -1211,20 +1224,20 @@
       <c r="T9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="2" t="n">
         <v>63032.9</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <f aca="false">A9</f>
         <v>420</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <f aca="false">(E9+I9+M9+Q9+U9)/5</f>
         <v>95180.52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>480</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -1236,7 +1249,7 @@
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>83339.1</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -1248,7 +1261,7 @@
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <v>108289.1</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -1260,7 +1273,7 @@
       <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="2" t="n">
         <v>85754.9</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -1272,7 +1285,7 @@
       <c r="P10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="2" t="n">
         <v>118291.3</v>
       </c>
       <c r="R10" s="0" t="n">
@@ -1284,20 +1297,20 @@
       <c r="T10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="2" t="n">
         <v>89452.5</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <f aca="false">A10</f>
         <v>480</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <f aca="false">(E10+I10+M10+Q10+U10)/5</f>
         <v>97025.38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>540</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -1309,7 +1322,7 @@
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>95133.2</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -1321,7 +1334,7 @@
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>102389.5</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -1333,7 +1346,7 @@
       <c r="L11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="2" t="n">
         <v>64642.4</v>
       </c>
       <c r="N11" s="0" t="n">
@@ -1345,7 +1358,7 @@
       <c r="P11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="2" t="n">
         <v>118562.9</v>
       </c>
       <c r="R11" s="0" t="n">
@@ -1357,20 +1370,20 @@
       <c r="T11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="2" t="n">
         <v>79375.3</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <f aca="false">A11</f>
         <v>540</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <f aca="false">(E11+I11+M11+Q11+U11)/5</f>
         <v>92020.66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>600</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -1382,7 +1395,7 @@
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>104951.6</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -1394,7 +1407,7 @@
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <v>108958.7</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -1406,7 +1419,7 @@
       <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="2" t="n">
         <v>74305</v>
       </c>
       <c r="N12" s="0" t="n">
@@ -1418,7 +1431,7 @@
       <c r="P12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="2" t="n">
         <v>96203.8</v>
       </c>
       <c r="R12" s="0" t="n">
@@ -1430,20 +1443,20 @@
       <c r="T12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="2" t="n">
         <v>68192.9</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <f aca="false">A12</f>
         <v>600</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="4" t="n">
         <f aca="false">(E12+I12+M12+Q12+U12)/5</f>
         <v>90522.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>750</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -1455,7 +1468,7 @@
       <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>84320.3</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -1467,7 +1480,7 @@
       <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <v>93573.8</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -1479,7 +1492,7 @@
       <c r="L13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="2" t="n">
         <v>84808.1</v>
       </c>
       <c r="N13" s="0" t="n">
@@ -1491,7 +1504,7 @@
       <c r="P13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="2" t="n">
         <v>92474.1</v>
       </c>
       <c r="R13" s="0" t="n">
@@ -1503,20 +1516,20 @@
       <c r="T13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="U13" s="2" t="n">
         <v>73215.5</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="1" t="n">
         <f aca="false">A13</f>
         <v>750</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="4" t="n">
         <f aca="false">(E13+I13+M13+Q13+U13)/5</f>
         <v>85678.36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>900</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -1528,7 +1541,7 @@
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>92033</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -1540,7 +1553,7 @@
       <c r="H14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="2" t="n">
         <v>95363.3</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -1552,7 +1565,7 @@
       <c r="L14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="2" t="n">
         <v>85313.5</v>
       </c>
       <c r="N14" s="0" t="n">
@@ -1564,7 +1577,7 @@
       <c r="P14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="2" t="n">
         <v>101076.2</v>
       </c>
       <c r="R14" s="0" t="n">
@@ -1576,20 +1589,20 @@
       <c r="T14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="U14" s="2" t="n">
         <v>89217</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="1" t="n">
         <f aca="false">A14</f>
         <v>900</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="4" t="n">
         <f aca="false">(E14+I14+M14+Q14+U14)/5</f>
         <v>92600.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>1050</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1601,7 +1614,7 @@
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <v>90978.4</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -1613,7 +1626,7 @@
       <c r="H15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="2" t="n">
         <v>100665.5</v>
       </c>
       <c r="J15" s="0" t="n">
@@ -1625,7 +1638,7 @@
       <c r="L15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="2" t="n">
         <v>80740.6</v>
       </c>
       <c r="N15" s="0" t="n">
@@ -1637,7 +1650,7 @@
       <c r="P15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="2" t="n">
         <v>98932.7</v>
       </c>
       <c r="R15" s="0" t="n">
@@ -1649,14 +1662,14 @@
       <c r="T15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="U15" s="2" t="n">
         <v>91441.2</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="1" t="n">
         <f aca="false">A15</f>
         <v>1050</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="4" t="n">
         <f aca="false">(E15+I15+M15+Q15+U15)/5</f>
         <v>92551.68</v>
       </c>
